--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235107.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 09:51:11</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 11:12:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235207.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 11:12:04</t>
+    <t>Informação extraída do SIGBM: 07/01/2023 - 11:52:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235207.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230608.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 07/01/2023 - 11:52:11</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 12:06:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230608.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 12:06:38</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 12:24:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 12:24:49</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 12:34:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234308.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 12:34:17</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 12:43:18</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234308.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235108.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 12:43:18</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 12:51:54</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235108.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230608.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 12:51:54</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 01:06:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230608.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232808.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 01:06:46</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 01:28:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232808.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234008.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 01:28:10</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 01:40:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234008.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234908.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 01:40:20</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 01:49:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234908.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 01:49:00</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 01:57:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 01:57:56</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 02:14:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232508.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 02:14:16</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 02:25:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232508.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 02:25:23</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 02:34:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234308.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 02:34:50</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 02:43:36</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234308.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 02:43:36</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 02:52:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230908.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 02:52:22</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 03:09:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230908.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232808.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 03:09:13</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 03:28:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232808.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234008.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 03:28:14</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 03:40:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234008.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234808.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 03:40:38</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 03:48:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234808.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 03:48:35</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 03:57:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231308.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 03:57:34</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 04:13:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231308.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 04:13:43</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 04:22:56</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233108.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 04:22:56</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 04:31:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233108.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234008.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 04:31:44</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 04:40:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234008.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234908.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 04:40:55</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 04:49:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234908.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235808.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 04:49:38</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 04:58:59</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235808.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232108.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 04:58:59</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 05:21:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232108.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 05:21:25</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 05:32:55</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234108.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 05:32:55</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 05:41:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234108.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235008.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 05:41:49</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 05:50:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235008.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235908.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 05:50:41</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 05:59:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235908.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231808.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 05:59:41</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 06:18:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231808.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 06:18:02</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 06:27:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233508.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 06:27:23</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 06:35:53</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233508.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 06:35:53</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 06:44:48</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 06:44:48</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 06:54:08</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230908.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 06:54:08</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 07:09:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230908.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 07:09:12</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 07:27:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233508.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 07:27:15</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 07:35:23</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233508.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 07:35:23</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 07:44:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235308.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 07:44:40</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 07:53:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235308.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230608.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 07:53:15</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 08:06:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230608.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231808.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 08:06:40</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 08:18:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231808.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 08:18:20</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 08:27:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233608.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 08:27:30</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 08:36:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233608.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234508.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 08:36:22</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 08:45:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234508.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 08:45:04</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 08:54:16</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231508.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 08:54:16</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 09:15:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231508.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234508.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 09:15:51</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 09:45:50</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234508.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230308.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 09:45:50</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 10:03:02</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230308.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 10:03:02</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 10:24:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233308.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 10:24:35</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 10:33:46</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233308.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 10:33:46</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 10:42:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235108.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 10:42:03</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 10:51:35</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235108.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230008.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 10:51:35</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 11:00:10</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230008.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 11:00:10</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 11:17:22</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 11:17:22</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 11:27:03</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233508.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 11:27:03</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 11:35:42</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233508.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 11:35:42</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 11:44:07</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235308.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 11:44:07</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 11:53:15</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235308.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 11:53:15</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 12:07:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232308.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 12:07:47</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 12:23:20</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232308.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 12:23:20</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 12:32:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234108.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 12:32:49</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 12:41:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234108.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235008.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 12:41:34</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 12:50:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235008.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235908.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 12:50:29</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 12:59:40</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235908.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232608.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 12:59:40</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 01:26:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232608.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 01:26:25</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 01:42:43</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235108.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 01:42:43</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 01:51:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235108.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235908.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 01:51:09</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 01:59:49</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235908.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231608.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 01:59:49</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 02:16:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231608.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232608.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 02:16:34</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 02:26:34</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232608.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233608.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 02:26:34</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 02:36:01</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233608.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234508.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 02:36:01</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 02:45:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234508.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235308.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 02:45:09</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 02:53:26</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235308.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230908.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 02:53:26</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 03:09:52</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230908.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232808.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 03:09:52</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 03:28:14</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232808.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233808.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 03:28:14</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 03:38:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233808.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 03:38:17</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 03:47:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235608.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 03:47:45</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 03:56:11</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235608.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231008.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 03:56:11</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 04:10:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231008.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232008.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 04:10:39</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 04:20:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232008.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232808.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 04:20:09</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 04:28:24</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232808.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 04:28:24</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 04:37:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234608.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 04:37:30</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 04:46:17</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234608.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235508.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 04:46:17</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 04:55:00</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235508.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231108.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 04:55:00</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 05:11:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231108.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 05:11:39</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 05:24:51</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 05:24:51</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 05:34:25</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234308.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 05:34:25</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 05:43:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234308.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 05:43:30</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 05:52:32</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 05:52:32</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 06:04:44</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20231808.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 06:04:44</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 06:18:47</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20231808.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232708.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 06:18:47</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 06:27:45</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232708.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233608.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 06:27:45</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 06:36:38</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233608.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234508.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 06:36:38</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 06:45:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234508.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 06:45:41</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 06:54:28</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230908.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 06:54:28</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 07:09:29</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230908.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 07:09:29</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 07:24:39</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 07:24:39</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 07:34:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 07:34:04</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 07:42:41</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235208.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 07:42:41</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 07:52:09</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20235208.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20230408.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 07:52:09</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 08:04:06</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20230408.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20232108.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 08:04:06</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 08:21:30</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20232108.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233008.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 08:21:30</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 08:30:13</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233008.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20233908.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 08:30:13</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 08:39:12</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20233908.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20234808.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 08:39:12</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 08:48:04</t>
   </si>
   <si>
     <t>ID Barragem</t>

--- a/sigbm_download_2023-01-08.xlsx
+++ b/sigbm_download_2023-01-08.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Relatorio_20234808.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="Relatorio_20235608.xlsx" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4254" uniqueCount="4254">
   <si>
-    <t>Informação extraída do SIGBM: 08/01/2023 - 08:48:04</t>
+    <t>Informação extraída do SIGBM: 08/01/2023 - 08:56:53</t>
   </si>
   <si>
     <t>ID Barragem</t>
